--- a/sample.xlsx
+++ b/sample.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Test-001" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TEST-001" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Test-005" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3422,7 +3423,7 @@
       <c r="I6" s="16" t="n"/>
       <c r="J6" s="29" t="inlineStr">
         <is>
-          <t>Test-001</t>
+          <t>TEST-001</t>
         </is>
       </c>
       <c r="K6" s="15" t="n"/>
@@ -3538,37 +3539,33 @@
       <c r="K8" s="16" t="n"/>
       <c r="L8" s="5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="M8" s="5" t="inlineStr">
         <is>
-          <t>NOT OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="N8" s="6" t="inlineStr">
         <is>
-          <t>2025-12-23 17:24:38</t>
-        </is>
-      </c>
-      <c r="O8" s="6" t="inlineStr">
-        <is>
-          <t>2025-12-23 17:24:38</t>
-        </is>
-      </c>
+          <t>2025-12-31 10:27:46.385733</t>
+        </is>
+      </c>
+      <c r="O8" s="6" t="inlineStr"/>
       <c r="P8" s="7" t="inlineStr">
         <is>
-          <t>Mathi</t>
+          <t>Test Technician</t>
         </is>
       </c>
       <c r="Q8" s="7" t="inlineStr">
         <is>
-          <t>Mathi</t>
+          <t>Test QC</t>
         </is>
       </c>
       <c r="R8" s="3" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Test remarks</t>
         </is>
       </c>
       <c r="S8" s="4" t="n"/>
@@ -3600,37 +3597,33 @@
       <c r="K9" s="16" t="n"/>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="M9" s="5" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT OK</t>
         </is>
       </c>
       <c r="N9" s="6" t="inlineStr">
         <is>
-          <t>2025-12-23 17:24:38</t>
-        </is>
-      </c>
-      <c r="O9" s="6" t="inlineStr">
-        <is>
-          <t>2025-12-23 17:24:38</t>
-        </is>
-      </c>
+          <t>2025-12-31 10:27:46.385733</t>
+        </is>
+      </c>
+      <c r="O9" s="6" t="inlineStr"/>
       <c r="P9" s="3" t="inlineStr">
         <is>
-          <t>Mathi</t>
+          <t>Test Technician</t>
         </is>
       </c>
       <c r="Q9" s="3" t="inlineStr">
         <is>
-          <t>Mathi</t>
+          <t>Test QC</t>
         </is>
       </c>
       <c r="R9" s="3" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Test remarks</t>
         </is>
       </c>
       <c r="S9" s="4" t="n"/>
@@ -3657,41 +3650,13 @@
       <c r="I10" s="15" t="n"/>
       <c r="J10" s="15" t="n"/>
       <c r="K10" s="16" t="n"/>
-      <c r="L10" s="5" t="inlineStr">
-        <is>
-          <t>NOT OK</t>
-        </is>
-      </c>
-      <c r="M10" s="5" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="N10" s="6" t="inlineStr">
-        <is>
-          <t>2025-12-23 17:24:38</t>
-        </is>
-      </c>
-      <c r="O10" s="6" t="inlineStr">
-        <is>
-          <t>2025-12-23 17:24:38</t>
-        </is>
-      </c>
-      <c r="P10" s="3" t="inlineStr">
-        <is>
-          <t>Mathi</t>
-        </is>
-      </c>
-      <c r="Q10" s="3" t="inlineStr">
-        <is>
-          <t>Mathi</t>
-        </is>
-      </c>
-      <c r="R10" s="3" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
+      <c r="L10" s="5" t="n"/>
+      <c r="M10" s="5" t="n"/>
+      <c r="N10" s="6" t="n"/>
+      <c r="O10" s="6" t="n"/>
+      <c r="P10" s="3" t="n"/>
+      <c r="Q10" s="3" t="n"/>
+      <c r="R10" s="3" t="n"/>
       <c r="S10" s="4" t="n"/>
     </row>
     <row r="11" ht="30" customHeight="1" s="41">
@@ -5363,6 +5328,2644 @@
       <c r="P62" s="21" t="n"/>
       <c r="Q62" s="16" t="n"/>
       <c r="R62" s="3" t="n"/>
+      <c r="S62" s="4" t="n"/>
+    </row>
+    <row r="63" ht="30" customHeight="1" s="41">
+      <c r="A63" s="33" t="inlineStr">
+        <is>
+          <t>Final Product Inspection Result</t>
+        </is>
+      </c>
+      <c r="B63" s="15" t="n"/>
+      <c r="C63" s="16" t="n"/>
+      <c r="D63" s="13" t="inlineStr">
+        <is>
+          <t>Satisfactory -Compliance with the requirements</t>
+        </is>
+      </c>
+      <c r="E63" s="12" t="inlineStr">
+        <is>
+          <t>Inspector Name</t>
+        </is>
+      </c>
+      <c r="F63" s="46" t="inlineStr">
+        <is>
+          <t>*** (Mechanical QC) &amp;****(Electrical QC), Mr.*** (Test Lab)</t>
+        </is>
+      </c>
+      <c r="G63" s="15" t="n"/>
+      <c r="H63" s="15" t="n"/>
+      <c r="I63" s="12" t="inlineStr">
+        <is>
+          <t>Date:****</t>
+        </is>
+      </c>
+      <c r="J63" s="46" t="n"/>
+      <c r="K63" s="15" t="n"/>
+      <c r="L63" s="48" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="M63" s="15" t="n"/>
+      <c r="N63" s="15" t="n"/>
+      <c r="O63" s="16" t="n"/>
+      <c r="P63" s="48" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="Q63" s="15" t="n"/>
+      <c r="R63" s="16" t="n"/>
+      <c r="S63" s="4" t="n"/>
+    </row>
+    <row r="64" ht="30" customHeight="1" s="41">
+      <c r="A64" s="39" t="inlineStr">
+        <is>
+          <t>10. Packaging Instructions &amp; PDIR Acceptance</t>
+        </is>
+      </c>
+      <c r="B64" s="40" t="n"/>
+      <c r="C64" s="18" t="n"/>
+      <c r="D64" s="35" t="inlineStr">
+        <is>
+          <t>10.1.Packing foams/cushion checks bottom/sides and top surface for protecting the cell box and stud protection and take images before packing and after placing in the packing box &amp; after final layer packing</t>
+        </is>
+      </c>
+      <c r="E64" s="15" t="n"/>
+      <c r="F64" s="15" t="n"/>
+      <c r="G64" s="15" t="n"/>
+      <c r="H64" s="15" t="n"/>
+      <c r="I64" s="15" t="n"/>
+      <c r="J64" s="15" t="n"/>
+      <c r="K64" s="16" t="n"/>
+      <c r="L64" s="21" t="n"/>
+      <c r="M64" s="15" t="n"/>
+      <c r="N64" s="15" t="n"/>
+      <c r="O64" s="16" t="n"/>
+      <c r="P64" s="22" t="n"/>
+      <c r="Q64" s="15" t="n"/>
+      <c r="R64" s="16" t="n"/>
+      <c r="S64" s="4" t="n"/>
+    </row>
+    <row r="65" ht="30" customHeight="1" s="41">
+      <c r="A65" s="24" t="n"/>
+      <c r="C65" s="25" t="n"/>
+      <c r="D65" s="35" t="inlineStr">
+        <is>
+          <t>10.2.Packing label signage images and handling instruction are place in the packing box</t>
+        </is>
+      </c>
+      <c r="E65" s="15" t="n"/>
+      <c r="F65" s="15" t="n"/>
+      <c r="G65" s="15" t="n"/>
+      <c r="H65" s="15" t="n"/>
+      <c r="I65" s="15" t="n"/>
+      <c r="J65" s="15" t="n"/>
+      <c r="K65" s="16" t="n"/>
+      <c r="L65" s="21" t="n"/>
+      <c r="M65" s="15" t="n"/>
+      <c r="N65" s="15" t="n"/>
+      <c r="O65" s="16" t="n"/>
+      <c r="P65" s="22" t="n"/>
+      <c r="Q65" s="15" t="n"/>
+      <c r="R65" s="16" t="n"/>
+      <c r="S65" s="4" t="n"/>
+    </row>
+    <row r="66" ht="30" customHeight="1" s="41">
+      <c r="A66" s="24" t="n"/>
+      <c r="C66" s="25" t="n"/>
+      <c r="D66" s="35" t="inlineStr">
+        <is>
+          <t>10.3.Ensure the QC reports/test reports for the pack are available in the packing box/ soft copy shared in the mail.</t>
+        </is>
+      </c>
+      <c r="E66" s="15" t="n"/>
+      <c r="F66" s="15" t="n"/>
+      <c r="G66" s="15" t="n"/>
+      <c r="H66" s="15" t="n"/>
+      <c r="I66" s="15" t="n"/>
+      <c r="J66" s="15" t="n"/>
+      <c r="K66" s="16" t="n"/>
+      <c r="L66" s="21" t="n"/>
+      <c r="M66" s="15" t="n"/>
+      <c r="N66" s="15" t="n"/>
+      <c r="O66" s="16" t="n"/>
+      <c r="P66" s="22" t="n"/>
+      <c r="Q66" s="15" t="n"/>
+      <c r="R66" s="16" t="n"/>
+      <c r="S66" s="4" t="n"/>
+    </row>
+    <row r="67" ht="30" customHeight="1" s="41">
+      <c r="A67" s="19" t="n"/>
+      <c r="B67" s="42" t="n"/>
+      <c r="C67" s="20" t="n"/>
+      <c r="D67" s="35" t="inlineStr">
+        <is>
+          <t>10.4.Packing foams/cushion checks bottom/sides and top surface for protecting the cell box and stud protection and check the packing list : i)stand off screws ii)þreplacement allen heads for heat sink iii)busbar spacer</t>
+        </is>
+      </c>
+      <c r="E67" s="15" t="n"/>
+      <c r="F67" s="15" t="n"/>
+      <c r="G67" s="15" t="n"/>
+      <c r="H67" s="15" t="n"/>
+      <c r="I67" s="15" t="n"/>
+      <c r="J67" s="15" t="n"/>
+      <c r="K67" s="16" t="n"/>
+      <c r="L67" s="21" t="n"/>
+      <c r="M67" s="15" t="n"/>
+      <c r="N67" s="15" t="n"/>
+      <c r="O67" s="16" t="n"/>
+      <c r="P67" s="22" t="n"/>
+      <c r="Q67" s="15" t="n"/>
+      <c r="R67" s="16" t="n"/>
+      <c r="S67" s="4" t="n"/>
+    </row>
+    <row r="68" ht="30" customHeight="1" s="41">
+      <c r="A68" s="43" t="inlineStr">
+        <is>
+          <t>Additional Notes/Comments</t>
+        </is>
+      </c>
+      <c r="B68" s="15" t="n"/>
+      <c r="C68" s="15" t="n"/>
+      <c r="D68" s="15" t="n"/>
+      <c r="E68" s="15" t="n"/>
+      <c r="F68" s="15" t="n"/>
+      <c r="G68" s="15" t="n"/>
+      <c r="H68" s="15" t="n"/>
+      <c r="I68" s="15" t="n"/>
+      <c r="J68" s="15" t="n"/>
+      <c r="K68" s="16" t="n"/>
+      <c r="L68" s="47" t="inlineStr">
+        <is>
+          <t>Packing &amp; Dispatched By</t>
+        </is>
+      </c>
+      <c r="M68" s="15" t="n"/>
+      <c r="N68" s="16" t="n"/>
+      <c r="O68" s="26" t="inlineStr">
+        <is>
+          <t>Approved By</t>
+        </is>
+      </c>
+      <c r="P68" s="15" t="n"/>
+      <c r="Q68" s="15" t="n"/>
+      <c r="R68" s="16" t="n"/>
+      <c r="S68" s="4" t="n"/>
+    </row>
+    <row r="69" ht="30" customHeight="1" s="41">
+      <c r="A69" s="28" t="inlineStr">
+        <is>
+          <t>* Pack voltage and continuity checked in pack open condition &amp; closed condition(pack assembly) _Found ***
+ (Pack Mfg date: ; QC date : Dispatched date : )</t>
+        </is>
+      </c>
+      <c r="B69" s="15" t="n"/>
+      <c r="C69" s="15" t="n"/>
+      <c r="D69" s="15" t="n"/>
+      <c r="E69" s="15" t="n"/>
+      <c r="F69" s="15" t="n"/>
+      <c r="G69" s="15" t="n"/>
+      <c r="H69" s="15" t="n"/>
+      <c r="I69" s="15" t="n"/>
+      <c r="J69" s="15" t="n"/>
+      <c r="K69" s="16" t="n"/>
+      <c r="L69" s="28" t="inlineStr">
+        <is>
+          <t>***SCM
+ Dated :</t>
+        </is>
+      </c>
+      <c r="M69" s="15" t="n"/>
+      <c r="N69" s="16" t="n"/>
+      <c r="O69" s="49" t="inlineStr">
+        <is>
+          <t>QA/QC Operations Head****
+ Dated :</t>
+        </is>
+      </c>
+      <c r="P69" s="15" t="n"/>
+      <c r="Q69" s="15" t="n"/>
+      <c r="R69" s="16" t="n"/>
+      <c r="S69" s="4" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="259">
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="A12:B28"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="E39:K39"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="D67:K67"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="C45:D56"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="O68:R68"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="A64:C67"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="D64:K64"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A68:K68"/>
+    <mergeCell ref="C57:D61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="C24:D28"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="A40:B61"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="C14:D17"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="C21:D23"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="A29:B33"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="D65:K65"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A8:B11"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="D66:K66"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="C9:D11"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="O69:R69"/>
+    <mergeCell ref="A2:N4"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="E38:G38"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col width="50" customWidth="1" style="41" min="1" max="1"/>
+    <col width="5" customWidth="1" style="41" min="2" max="2"/>
+    <col width="50" customWidth="1" style="41" min="3" max="5"/>
+    <col width="16" customWidth="1" style="41" min="6" max="6"/>
+    <col width="19" customWidth="1" style="41" min="7" max="7"/>
+    <col width="50" customWidth="1" style="41" min="8" max="8"/>
+    <col width="15.109375" customWidth="1" style="41" min="9" max="9"/>
+    <col width="50" customWidth="1" style="41" min="10" max="10"/>
+    <col width="5" customWidth="1" style="41" min="11" max="11"/>
+    <col width="28" customWidth="1" style="41" min="12" max="12"/>
+    <col width="23" customWidth="1" style="41" min="13" max="13"/>
+    <col width="34" customWidth="1" style="41" min="14" max="14"/>
+    <col width="37.109375" customWidth="1" style="41" min="15" max="15"/>
+    <col width="29" customWidth="1" style="41" min="16" max="16"/>
+    <col width="17" customWidth="1" style="41" min="17" max="17"/>
+    <col width="38" customWidth="1" style="41" min="18" max="18"/>
+    <col width="5" customWidth="1" style="41" min="19" max="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1" s="41">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" s="41">
+      <c r="A2" s="50" t="inlineStr">
+        <is>
+          <t>Process Card -Inprocess QC Report</t>
+        </is>
+      </c>
+      <c r="B2" s="40" t="n"/>
+      <c r="C2" s="40" t="n"/>
+      <c r="D2" s="40" t="n"/>
+      <c r="E2" s="40" t="n"/>
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="40" t="n"/>
+      <c r="H2" s="40" t="n"/>
+      <c r="I2" s="40" t="n"/>
+      <c r="J2" s="40" t="n"/>
+      <c r="K2" s="40" t="n"/>
+      <c r="L2" s="40" t="n"/>
+      <c r="M2" s="40" t="n"/>
+      <c r="N2" s="18" t="n"/>
+      <c r="O2" s="45" t="inlineStr">
+        <is>
+          <t>Doc.No: P-BDT-FR-04A</t>
+        </is>
+      </c>
+      <c r="P2" s="15" t="n"/>
+      <c r="Q2" s="15" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="4" t="n"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" s="41">
+      <c r="A3" s="24" t="n"/>
+      <c r="N3" s="25" t="n"/>
+      <c r="O3" s="38" t="inlineStr">
+        <is>
+          <t>Rev.No:01</t>
+        </is>
+      </c>
+      <c r="P3" s="15" t="n"/>
+      <c r="Q3" s="15" t="n"/>
+      <c r="R3" s="16" t="n"/>
+      <c r="S3" s="4" t="n"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" s="41">
+      <c r="A4" s="19" t="n"/>
+      <c r="B4" s="42" t="n"/>
+      <c r="C4" s="42" t="n"/>
+      <c r="D4" s="42" t="n"/>
+      <c r="E4" s="42" t="n"/>
+      <c r="F4" s="42" t="n"/>
+      <c r="G4" s="42" t="n"/>
+      <c r="H4" s="42" t="n"/>
+      <c r="I4" s="42" t="n"/>
+      <c r="J4" s="42" t="n"/>
+      <c r="K4" s="42" t="n"/>
+      <c r="L4" s="42" t="n"/>
+      <c r="M4" s="42" t="n"/>
+      <c r="N4" s="20" t="n"/>
+      <c r="O4" s="45" t="inlineStr">
+        <is>
+          <t>Rev Date:29.07.2025</t>
+        </is>
+      </c>
+      <c r="P4" s="15" t="n"/>
+      <c r="Q4" s="15" t="n"/>
+      <c r="R4" s="16" t="n"/>
+      <c r="S4" s="4" t="n"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" s="41">
+      <c r="A5" s="36" t="inlineStr">
+        <is>
+          <t>Report Number</t>
+        </is>
+      </c>
+      <c r="B5" s="15" t="n"/>
+      <c r="C5" s="16" t="n"/>
+      <c r="D5" s="29" t="inlineStr">
+        <is>
+          <t>ZMC V3- RXX</t>
+        </is>
+      </c>
+      <c r="E5" s="16" t="n"/>
+      <c r="F5" s="36" t="inlineStr">
+        <is>
+          <t>Date Issued</t>
+        </is>
+      </c>
+      <c r="G5" s="16" t="n"/>
+      <c r="H5" s="29" t="n"/>
+      <c r="I5" s="16" t="n"/>
+      <c r="J5" s="36" t="inlineStr">
+        <is>
+          <t>Model #.</t>
+        </is>
+      </c>
+      <c r="K5" s="16" t="n"/>
+      <c r="L5" s="29" t="inlineStr">
+        <is>
+          <t>PVG-75-ZMC V3.0</t>
+        </is>
+      </c>
+      <c r="M5" s="16" t="n"/>
+      <c r="N5" s="36" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="O5" s="15" t="n"/>
+      <c r="P5" s="16" t="n"/>
+      <c r="Q5" s="44" t="inlineStr">
+        <is>
+          <t>F76</t>
+        </is>
+      </c>
+      <c r="R5" s="16" t="n"/>
+      <c r="S5" s="4" t="n"/>
+    </row>
+    <row r="6" ht="30" customHeight="1" s="41">
+      <c r="A6" s="36" t="inlineStr">
+        <is>
+          <t>Product Name/Descp.</t>
+        </is>
+      </c>
+      <c r="B6" s="15" t="n"/>
+      <c r="C6" s="16" t="n"/>
+      <c r="D6" s="29" t="inlineStr">
+        <is>
+          <t>Rechargeable Lithium Ion (7.4 kWh)Battery Pack</t>
+        </is>
+      </c>
+      <c r="E6" s="15" t="n"/>
+      <c r="F6" s="15" t="n"/>
+      <c r="G6" s="16" t="n"/>
+      <c r="H6" s="36" t="inlineStr">
+        <is>
+          <t>Serial Number</t>
+        </is>
+      </c>
+      <c r="I6" s="16" t="n"/>
+      <c r="J6" s="29" t="inlineStr">
+        <is>
+          <t>Test-005</t>
+        </is>
+      </c>
+      <c r="K6" s="15" t="n"/>
+      <c r="L6" s="16" t="n"/>
+      <c r="M6" s="36" t="inlineStr">
+        <is>
+          <t>Pack &amp; Module No :</t>
+        </is>
+      </c>
+      <c r="N6" s="15" t="n"/>
+      <c r="O6" s="16" t="n"/>
+      <c r="P6" s="44" t="inlineStr">
+        <is>
+          <t>Pack : XX Module : XX&amp;XX</t>
+        </is>
+      </c>
+      <c r="Q6" s="15" t="n"/>
+      <c r="R6" s="16" t="n"/>
+      <c r="S6" s="4" t="n"/>
+    </row>
+    <row r="7" ht="30" customHeight="1" s="41">
+      <c r="A7" s="26" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="B7" s="16" t="n"/>
+      <c r="C7" s="26" t="inlineStr">
+        <is>
+          <t>WORK description</t>
+        </is>
+      </c>
+      <c r="D7" s="16" t="n"/>
+      <c r="E7" s="26" t="inlineStr">
+        <is>
+          <t>Process/QC checks</t>
+        </is>
+      </c>
+      <c r="F7" s="15" t="n"/>
+      <c r="G7" s="16" t="n"/>
+      <c r="H7" s="26" t="inlineStr">
+        <is>
+          <t>Acceptance Criteria</t>
+        </is>
+      </c>
+      <c r="I7" s="15" t="n"/>
+      <c r="J7" s="15" t="n"/>
+      <c r="K7" s="16" t="n"/>
+      <c r="L7" s="26" t="inlineStr">
+        <is>
+          <t>Module X QC Result</t>
+        </is>
+      </c>
+      <c r="M7" s="26" t="inlineStr">
+        <is>
+          <t>Module Y QC Result</t>
+        </is>
+      </c>
+      <c r="N7" s="26" t="inlineStr">
+        <is>
+          <t>Start date</t>
+        </is>
+      </c>
+      <c r="O7" s="26" t="inlineStr">
+        <is>
+          <t>End date</t>
+        </is>
+      </c>
+      <c r="P7" s="26" t="inlineStr">
+        <is>
+          <t>Technician Name/sign</t>
+        </is>
+      </c>
+      <c r="Q7" s="26" t="inlineStr">
+        <is>
+          <t>QC Name/Sign</t>
+        </is>
+      </c>
+      <c r="R7" s="26" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="S7" s="4" t="n"/>
+    </row>
+    <row r="8" ht="30" customHeight="1" s="41">
+      <c r="A8" s="23" t="inlineStr">
+        <is>
+          <t>1.Cell sorting</t>
+        </is>
+      </c>
+      <c r="B8" s="18" t="n"/>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t>1.1 Cell sorting as per the rated voltage &amp; IR (210 Cells)</t>
+        </is>
+      </c>
+      <c r="D8" s="16" t="n"/>
+      <c r="E8" s="14" t="inlineStr">
+        <is>
+          <t>1.1.1 Acceptable range Voltage : 3.58 to 3.6 V_IR : 11.5 to 12.5 mΩ</t>
+        </is>
+      </c>
+      <c r="F8" s="15" t="n"/>
+      <c r="G8" s="16" t="n"/>
+      <c r="H8" s="14" t="inlineStr">
+        <is>
+          <t>Nominal Voltage should be witin 3.58 to 3.6 V (20 mV) &amp; IR : 11.5 to 12.5 mΩ</t>
+        </is>
+      </c>
+      <c r="I8" s="15" t="n"/>
+      <c r="J8" s="15" t="n"/>
+      <c r="K8" s="16" t="n"/>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <t>NOT OK</t>
+        </is>
+      </c>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr">
+        <is>
+          <t>2025-12-31 10:30:19.823827</t>
+        </is>
+      </c>
+      <c r="O8" s="6" t="inlineStr">
+        <is>
+          <t>2025-12-31 10:30:37.844789</t>
+        </is>
+      </c>
+      <c r="P8" s="7" t="inlineStr">
+        <is>
+          <t>Tester</t>
+        </is>
+      </c>
+      <c r="Q8" s="7" t="inlineStr">
+        <is>
+          <t>Tester1</t>
+        </is>
+      </c>
+      <c r="R8" s="3" t="inlineStr">
+        <is>
+          <t>All good</t>
+        </is>
+      </c>
+      <c r="S8" s="4" t="n"/>
+    </row>
+    <row r="9" ht="30" customHeight="1" s="41">
+      <c r="A9" s="24" t="n"/>
+      <c r="B9" s="25" t="n"/>
+      <c r="C9" s="17" t="inlineStr">
+        <is>
+          <t>1.2 Placement of Cells in cell assembly jig</t>
+        </is>
+      </c>
+      <c r="D9" s="18" t="n"/>
+      <c r="E9" s="14" t="inlineStr">
+        <is>
+          <t>1.2.1 Jig setup on the flat surface</t>
+        </is>
+      </c>
+      <c r="F9" s="15" t="n"/>
+      <c r="G9" s="16" t="n"/>
+      <c r="H9" s="34" t="inlineStr">
+        <is>
+          <t>*Flatness should be £0.2 mm.
+ *No wobble or movement during assembly</t>
+        </is>
+      </c>
+      <c r="I9" s="15" t="n"/>
+      <c r="J9" s="15" t="n"/>
+      <c r="K9" s="16" t="n"/>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M9" s="5" t="inlineStr">
+        <is>
+          <t>NOT OK</t>
+        </is>
+      </c>
+      <c r="N9" s="6" t="inlineStr">
+        <is>
+          <t>2025-12-31 10:30:19.823827</t>
+        </is>
+      </c>
+      <c r="O9" s="6" t="inlineStr">
+        <is>
+          <t>2025-12-31 10:30:37.844789</t>
+        </is>
+      </c>
+      <c r="P9" s="3" t="inlineStr">
+        <is>
+          <t>Tester</t>
+        </is>
+      </c>
+      <c r="Q9" s="3" t="inlineStr">
+        <is>
+          <t>Tester1</t>
+        </is>
+      </c>
+      <c r="R9" s="3" t="inlineStr">
+        <is>
+          <t>All good</t>
+        </is>
+      </c>
+      <c r="S9" s="4" t="n"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" s="41">
+      <c r="A10" s="24" t="n"/>
+      <c r="B10" s="25" t="n"/>
+      <c r="C10" s="24" t="n"/>
+      <c r="D10" s="25" t="n"/>
+      <c r="E10" s="14" t="inlineStr">
+        <is>
+          <t>1.2.2 Visual &amp; spacing inspection</t>
+        </is>
+      </c>
+      <c r="F10" s="15" t="n"/>
+      <c r="G10" s="16" t="n"/>
+      <c r="H10" s="14" t="inlineStr">
+        <is>
+          <t>*All cells must be aligned as per design.
+ *No dents, scratches, or deformation on cells
+ *The designed fixture ensures the adhesive thickeness between the cell and base plate is 400 microns and cell to cell gap is maintained.</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="n"/>
+      <c r="J10" s="15" t="n"/>
+      <c r="K10" s="16" t="n"/>
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>NOT OK</t>
+        </is>
+      </c>
+      <c r="M10" s="5" t="inlineStr">
+        <is>
+          <t>NOT OK</t>
+        </is>
+      </c>
+      <c r="N10" s="6" t="inlineStr">
+        <is>
+          <t>2025-12-31 10:30:19.823827</t>
+        </is>
+      </c>
+      <c r="O10" s="6" t="inlineStr">
+        <is>
+          <t>2025-12-31 10:30:37.844789</t>
+        </is>
+      </c>
+      <c r="P10" s="3" t="inlineStr">
+        <is>
+          <t>Tester</t>
+        </is>
+      </c>
+      <c r="Q10" s="3" t="inlineStr">
+        <is>
+          <t>Tester1</t>
+        </is>
+      </c>
+      <c r="R10" s="3" t="inlineStr">
+        <is>
+          <t>All good</t>
+        </is>
+      </c>
+      <c r="S10" s="4" t="n"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" s="41">
+      <c r="A11" s="19" t="n"/>
+      <c r="B11" s="20" t="n"/>
+      <c r="C11" s="19" t="n"/>
+      <c r="D11" s="20" t="n"/>
+      <c r="E11" s="14" t="inlineStr">
+        <is>
+          <t>1.2.3 No moisture, dust ,on the cell surface (no contaminations)-IP clean</t>
+        </is>
+      </c>
+      <c r="F11" s="15" t="n"/>
+      <c r="G11" s="16" t="n"/>
+      <c r="H11" s="14" t="inlineStr">
+        <is>
+          <t>*Surfaces must be free from dust, fibers particles and No oil, grease, or foreign substances on cells or jig.</t>
+        </is>
+      </c>
+      <c r="I11" s="15" t="n"/>
+      <c r="J11" s="15" t="n"/>
+      <c r="K11" s="16" t="n"/>
+      <c r="L11" s="5" t="n"/>
+      <c r="M11" s="5" t="n"/>
+      <c r="N11" s="6" t="n"/>
+      <c r="O11" s="6" t="n"/>
+      <c r="P11" s="3" t="n"/>
+      <c r="Q11" s="3" t="n"/>
+      <c r="R11" s="3" t="n"/>
+      <c r="S11" s="4" t="n"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" s="41">
+      <c r="A12" s="23" t="inlineStr">
+        <is>
+          <t>2. Module Assembly- sub-assembly</t>
+        </is>
+      </c>
+      <c r="B12" s="18" t="n"/>
+      <c r="C12" s="17" t="inlineStr">
+        <is>
+          <t>2.1 Aluminum base plate fixing in Base plate fixture &amp; clinch‑rivet</t>
+        </is>
+      </c>
+      <c r="D12" s="18" t="n"/>
+      <c r="E12" s="14" t="inlineStr">
+        <is>
+          <t>2.1.1Proper fitment to the Base plate fixture and base plate orientation.</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="14" t="inlineStr">
+        <is>
+          <t>*The battery pack must sit flush on the base plate with no gaps or misalignment ,All locking or clamping features of the fixture must engage properly and not wobble.</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="5" t="n"/>
+      <c r="M12" s="5" t="n"/>
+      <c r="N12" s="6" t="n"/>
+      <c r="O12" s="6" t="n"/>
+      <c r="P12" s="7" t="n"/>
+      <c r="Q12" s="7" t="n"/>
+      <c r="R12" s="3" t="n"/>
+      <c r="S12" s="4" t="n"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" s="41">
+      <c r="A13" s="24" t="n"/>
+      <c r="B13" s="25" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="20" t="n"/>
+      <c r="E13" s="14" t="inlineStr">
+        <is>
+          <t>2.1.2 Clinch /all rivets perpendicular to the plate &amp; proper clinch</t>
+        </is>
+      </c>
+      <c r="F13" s="15" t="n"/>
+      <c r="G13" s="16" t="n"/>
+      <c r="H13" s="14" t="inlineStr">
+        <is>
+          <t>*Rivets must not show signs of bending, cracking, or improper expansion &amp; Rivet heads must be flush with the surface; clinch depth should meet design specs.</t>
+        </is>
+      </c>
+      <c r="I13" s="15" t="n"/>
+      <c r="J13" s="15" t="n"/>
+      <c r="K13" s="16" t="n"/>
+      <c r="L13" s="5" t="n"/>
+      <c r="M13" s="5" t="n"/>
+      <c r="N13" s="6" t="n"/>
+      <c r="O13" s="6" t="n"/>
+      <c r="P13" s="3" t="n"/>
+      <c r="Q13" s="3" t="n"/>
+      <c r="R13" s="3" t="n"/>
+      <c r="S13" s="4" t="n"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" s="41">
+      <c r="A14" s="24" t="n"/>
+      <c r="B14" s="25" t="n"/>
+      <c r="C14" s="17" t="inlineStr">
+        <is>
+          <t>2.2 Adhesive dispensing on cells placed in the jig &amp; flip of cell assembly jig on baseplate fixture after curing</t>
+        </is>
+      </c>
+      <c r="D14" s="18" t="n"/>
+      <c r="E14" s="14" t="inlineStr">
+        <is>
+          <t>2.2.1 Volume consistency</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="n"/>
+      <c r="G14" s="16" t="n"/>
+      <c r="H14" s="14" t="inlineStr">
+        <is>
+          <t>Volume should be within ±10% of the specified amount(spec 400 to 600 microns ) &amp; Adhesive should not spill over cell edges / be insufficient to bond.Dielectric strength - 19.0 kV/mm</t>
+        </is>
+      </c>
+      <c r="I14" s="15" t="n"/>
+      <c r="J14" s="15" t="n"/>
+      <c r="K14" s="16" t="n"/>
+      <c r="L14" s="5" t="n"/>
+      <c r="M14" s="5" t="n"/>
+      <c r="N14" s="6" t="n"/>
+      <c r="O14" s="6" t="n"/>
+      <c r="P14" s="3" t="n"/>
+      <c r="Q14" s="3" t="n"/>
+      <c r="R14" s="3" t="n"/>
+      <c r="S14" s="4" t="n"/>
+    </row>
+    <row r="15" ht="30" customHeight="1" s="41">
+      <c r="A15" s="24" t="n"/>
+      <c r="B15" s="25" t="n"/>
+      <c r="C15" s="24" t="n"/>
+      <c r="D15" s="25" t="n"/>
+      <c r="E15" s="14" t="inlineStr">
+        <is>
+          <t>2.2.2 Coverage in space/gap</t>
+        </is>
+      </c>
+      <c r="F15" s="15" t="n"/>
+      <c r="G15" s="16" t="n"/>
+      <c r="H15" s="14" t="inlineStr">
+        <is>
+          <t>Uniform Spread &amp; No Voids</t>
+        </is>
+      </c>
+      <c r="I15" s="15" t="n"/>
+      <c r="J15" s="15" t="n"/>
+      <c r="K15" s="16" t="n"/>
+      <c r="L15" s="5" t="n"/>
+      <c r="M15" s="5" t="n"/>
+      <c r="N15" s="6" t="n"/>
+      <c r="O15" s="6" t="n"/>
+      <c r="P15" s="3" t="n"/>
+      <c r="Q15" s="3" t="n"/>
+      <c r="R15" s="3" t="n"/>
+      <c r="S15" s="4" t="n"/>
+    </row>
+    <row r="16" ht="30" customHeight="1" s="41">
+      <c r="A16" s="24" t="n"/>
+      <c r="B16" s="25" t="n"/>
+      <c r="C16" s="24" t="n"/>
+      <c r="D16" s="25" t="n"/>
+      <c r="E16" s="14" t="inlineStr">
+        <is>
+          <t>2.2.3 Jig alignment correction</t>
+        </is>
+      </c>
+      <c r="F16" s="15" t="n"/>
+      <c r="G16" s="16" t="n"/>
+      <c r="H16" s="14" t="inlineStr">
+        <is>
+          <t>Proper Jig Positioning &amp; No Misalignment</t>
+        </is>
+      </c>
+      <c r="I16" s="15" t="n"/>
+      <c r="J16" s="15" t="n"/>
+      <c r="K16" s="16" t="n"/>
+      <c r="L16" s="5" t="n"/>
+      <c r="M16" s="5" t="n"/>
+      <c r="N16" s="6" t="n"/>
+      <c r="O16" s="6" t="n"/>
+      <c r="P16" s="3" t="n"/>
+      <c r="Q16" s="3" t="n"/>
+      <c r="R16" s="3" t="n"/>
+      <c r="S16" s="4" t="n"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" s="41">
+      <c r="A17" s="24" t="n"/>
+      <c r="B17" s="25" t="n"/>
+      <c r="C17" s="19" t="n"/>
+      <c r="D17" s="20" t="n"/>
+      <c r="E17" s="14" t="inlineStr">
+        <is>
+          <t>2.2.4 Cure and bond integrity-2 hrs. adhesive curing after cell flip</t>
+        </is>
+      </c>
+      <c r="F17" s="15" t="n"/>
+      <c r="G17" s="16" t="n"/>
+      <c r="H17" s="14" t="inlineStr">
+        <is>
+          <t>No cracks, bubbles, or discoloration in cured adhesive</t>
+        </is>
+      </c>
+      <c r="I17" s="15" t="n"/>
+      <c r="J17" s="15" t="n"/>
+      <c r="K17" s="16" t="n"/>
+      <c r="L17" s="5" t="n"/>
+      <c r="M17" s="5" t="n"/>
+      <c r="N17" s="6" t="n"/>
+      <c r="O17" s="6" t="n"/>
+      <c r="P17" s="3" t="n"/>
+      <c r="Q17" s="3" t="n"/>
+      <c r="R17" s="3" t="n"/>
+      <c r="S17" s="4" t="n"/>
+    </row>
+    <row r="18" ht="30" customHeight="1" s="41">
+      <c r="A18" s="24" t="n"/>
+      <c r="B18" s="25" t="n"/>
+      <c r="C18" s="17" t="inlineStr">
+        <is>
+          <t>2.3 Dismantling the cell assembly jig &amp; fixture</t>
+        </is>
+      </c>
+      <c r="D18" s="18" t="n"/>
+      <c r="E18" s="14" t="inlineStr">
+        <is>
+          <t>2.3.1 Cell continuity check &amp; visual check on cell fitment ,Cell Height(72.6mm) from the base plate placement after dismantling the fixture.</t>
+        </is>
+      </c>
+      <c r="F18" s="15" t="n"/>
+      <c r="G18" s="16" t="n"/>
+      <c r="H18" s="34" t="inlineStr">
+        <is>
+          <t>Continuity shouldn't present, Cell should be in nominal voltage.
+ Cell height from the base plate tolerance: 72.6mm ± 0.15 mm (all cells)</t>
+        </is>
+      </c>
+      <c r="I18" s="15" t="n"/>
+      <c r="J18" s="15" t="n"/>
+      <c r="K18" s="16" t="n"/>
+      <c r="L18" s="8" t="n"/>
+      <c r="M18" s="8" t="n"/>
+      <c r="N18" s="6" t="n"/>
+      <c r="O18" s="6" t="n"/>
+      <c r="P18" s="3" t="n"/>
+      <c r="Q18" s="3" t="n"/>
+      <c r="R18" s="3" t="n"/>
+      <c r="S18" s="4" t="n"/>
+    </row>
+    <row r="19" ht="30" customHeight="1" s="41">
+      <c r="A19" s="24" t="n"/>
+      <c r="B19" s="25" t="n"/>
+      <c r="C19" s="19" t="n"/>
+      <c r="D19" s="20" t="n"/>
+      <c r="E19" s="14" t="inlineStr">
+        <is>
+          <t>2.3.2 Cleanliness inspection</t>
+        </is>
+      </c>
+      <c r="F19" s="15" t="n"/>
+      <c r="G19" s="16" t="n"/>
+      <c r="H19" s="14" t="inlineStr">
+        <is>
+          <t>Cell surfaces must be free from dust, moisture, oil, or any foreign particles</t>
+        </is>
+      </c>
+      <c r="I19" s="15" t="n"/>
+      <c r="J19" s="15" t="n"/>
+      <c r="K19" s="16" t="n"/>
+      <c r="L19" s="5" t="n"/>
+      <c r="M19" s="5" t="n"/>
+      <c r="N19" s="6" t="n"/>
+      <c r="O19" s="6" t="n"/>
+      <c r="P19" s="3" t="n"/>
+      <c r="Q19" s="3" t="n"/>
+      <c r="R19" s="3" t="n"/>
+      <c r="S19" s="4" t="n"/>
+    </row>
+    <row r="20" ht="30" customHeight="1" s="41">
+      <c r="A20" s="24" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="17" t="inlineStr">
+        <is>
+          <t>2.4 Fixing of sidewall (PC sheets) in the cell assembly</t>
+        </is>
+      </c>
+      <c r="D20" s="16" t="n"/>
+      <c r="E20" s="14" t="inlineStr">
+        <is>
+          <t>2.4.1 Even fix of sidewall all the four sides without any gaps in the joint and proper dimension maintained
+ 72.5mm*239.4</t>
+        </is>
+      </c>
+      <c r="F20" s="15" t="n"/>
+      <c r="G20" s="16" t="n"/>
+      <c r="H20" s="14" t="inlineStr">
+        <is>
+          <t>No warping, bending, or uneven spacing.
+ Dim Tol : 72.5mm ± 0.15 mm *239.4 (±0.20 to 0.30)</t>
+        </is>
+      </c>
+      <c r="I20" s="15" t="n"/>
+      <c r="J20" s="15" t="n"/>
+      <c r="K20" s="16" t="n"/>
+      <c r="L20" s="8" t="n"/>
+      <c r="M20" s="8" t="n"/>
+      <c r="N20" s="6" t="n"/>
+      <c r="O20" s="6" t="n"/>
+      <c r="P20" s="3" t="n"/>
+      <c r="Q20" s="3" t="n"/>
+      <c r="R20" s="3" t="n"/>
+      <c r="S20" s="4" t="n"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" s="41">
+      <c r="A21" s="24" t="n"/>
+      <c r="B21" s="25" t="n"/>
+      <c r="C21" s="17" t="inlineStr">
+        <is>
+          <t>2.5 Thermistor &amp; voltage tapping's on Cell assembly(Routing &amp; Placement)</t>
+        </is>
+      </c>
+      <c r="D21" s="18" t="n"/>
+      <c r="E21" s="14" t="inlineStr">
+        <is>
+          <t>2.5.1 Placement as per the drawing &amp; wire routings ( Thermistor -7 no's/Voltage harness -14 no's)</t>
+        </is>
+      </c>
+      <c r="F21" s="15" t="n"/>
+      <c r="G21" s="16" t="n"/>
+      <c r="H21" s="14" t="inlineStr">
+        <is>
+          <t>Thermistors position should be 15 mm from the top of the cell . on the ,Voltage Harness ,Orientation &amp; Positioning</t>
+        </is>
+      </c>
+      <c r="I21" s="15" t="n"/>
+      <c r="J21" s="15" t="n"/>
+      <c r="K21" s="16" t="n"/>
+      <c r="L21" s="5" t="n"/>
+      <c r="M21" s="5" t="n"/>
+      <c r="N21" s="6" t="n"/>
+      <c r="O21" s="6" t="n"/>
+      <c r="P21" s="3" t="n"/>
+      <c r="Q21" s="3" t="n"/>
+      <c r="R21" s="3" t="n"/>
+      <c r="S21" s="4" t="n"/>
+    </row>
+    <row r="22" ht="30" customHeight="1" s="41">
+      <c r="A22" s="24" t="n"/>
+      <c r="B22" s="25" t="n"/>
+      <c r="C22" s="24" t="n"/>
+      <c r="D22" s="25" t="n"/>
+      <c r="E22" s="14" t="inlineStr">
+        <is>
+          <t>2.5.2 Secure adhesion &amp; positioning with thermal adhesive</t>
+        </is>
+      </c>
+      <c r="F22" s="15" t="n"/>
+      <c r="G22" s="16" t="n"/>
+      <c r="H22" s="14" t="inlineStr">
+        <is>
+          <t>Firm Fixation &amp; No Loose Ends</t>
+        </is>
+      </c>
+      <c r="I22" s="15" t="n"/>
+      <c r="J22" s="15" t="n"/>
+      <c r="K22" s="16" t="n"/>
+      <c r="L22" s="5" t="n"/>
+      <c r="M22" s="5" t="n"/>
+      <c r="N22" s="6" t="n"/>
+      <c r="O22" s="6" t="n"/>
+      <c r="P22" s="3" t="n"/>
+      <c r="Q22" s="3" t="n"/>
+      <c r="R22" s="3" t="n"/>
+      <c r="S22" s="4" t="n"/>
+    </row>
+    <row r="23" ht="30" customHeight="1" s="41">
+      <c r="A23" s="24" t="n"/>
+      <c r="B23" s="25" t="n"/>
+      <c r="C23" s="19" t="n"/>
+      <c r="D23" s="20" t="n"/>
+      <c r="E23" s="14" t="inlineStr">
+        <is>
+          <t>2.5.3 No insulation damage or routing faults(Visual + routing diagram comparison)</t>
+        </is>
+      </c>
+      <c r="F23" s="15" t="n"/>
+      <c r="G23" s="16" t="n"/>
+      <c r="H23" s="14" t="inlineStr">
+        <is>
+          <t>No Insulation Damage: Wires must be free from cuts, abrasions, or exposed conductors
+ No Routing Faults: Wires must not be pinched, twisted, or routed over sharp edges.</t>
+        </is>
+      </c>
+      <c r="I23" s="15" t="n"/>
+      <c r="J23" s="15" t="n"/>
+      <c r="K23" s="16" t="n"/>
+      <c r="L23" s="5" t="n"/>
+      <c r="M23" s="5" t="n"/>
+      <c r="N23" s="6" t="n"/>
+      <c r="O23" s="6" t="n"/>
+      <c r="P23" s="3" t="n"/>
+      <c r="Q23" s="3" t="n"/>
+      <c r="R23" s="3" t="n"/>
+      <c r="S23" s="4" t="n"/>
+    </row>
+    <row r="24" ht="30" customHeight="1" s="41">
+      <c r="A24" s="24" t="n"/>
+      <c r="B24" s="25" t="n"/>
+      <c r="C24" s="17" t="inlineStr">
+        <is>
+          <t>2.6 Busbar fitment on CPT (adhesive dispensing) &amp; voltage tap -thermistor sub assembly</t>
+        </is>
+      </c>
+      <c r="D24" s="18" t="n"/>
+      <c r="E24" s="14" t="inlineStr">
+        <is>
+          <t>2.6.1 Busbar fitment as per the drawings , Curing time 1 hr.</t>
+        </is>
+      </c>
+      <c r="F24" s="15" t="n"/>
+      <c r="G24" s="16" t="n"/>
+      <c r="H24" s="14" t="inlineStr">
+        <is>
+          <t>As per Drawing, Orientation &amp; Alignment. Busbar must not be disturbed during curing</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="n"/>
+      <c r="J24" s="15" t="n"/>
+      <c r="K24" s="16" t="n"/>
+      <c r="L24" s="5" t="n"/>
+      <c r="M24" s="5" t="n"/>
+      <c r="N24" s="6" t="n"/>
+      <c r="O24" s="6" t="n"/>
+      <c r="P24" s="7" t="n"/>
+      <c r="Q24" s="7" t="n"/>
+      <c r="R24" s="3" t="n"/>
+      <c r="S24" s="4" t="n"/>
+    </row>
+    <row r="25" ht="30" customHeight="1" s="41">
+      <c r="A25" s="24" t="n"/>
+      <c r="B25" s="25" t="n"/>
+      <c r="C25" s="24" t="n"/>
+      <c r="D25" s="25" t="n"/>
+      <c r="E25" s="14" t="inlineStr">
+        <is>
+          <t>2.6.2 Busbar placement &amp; defect absence</t>
+        </is>
+      </c>
+      <c r="F25" s="15" t="n"/>
+      <c r="G25" s="16" t="n"/>
+      <c r="H25" s="14" t="inlineStr">
+        <is>
+          <t>Busbar must be free from bends, warping, or surface damage</t>
+        </is>
+      </c>
+      <c r="I25" s="15" t="n"/>
+      <c r="J25" s="15" t="n"/>
+      <c r="K25" s="16" t="n"/>
+      <c r="L25" s="5" t="n"/>
+      <c r="M25" s="5" t="n"/>
+      <c r="N25" s="6" t="n"/>
+      <c r="O25" s="6" t="n"/>
+      <c r="P25" s="3" t="n"/>
+      <c r="Q25" s="3" t="n"/>
+      <c r="R25" s="3" t="n"/>
+      <c r="S25" s="4" t="n"/>
+    </row>
+    <row r="26" ht="30" customHeight="1" s="41">
+      <c r="A26" s="24" t="n"/>
+      <c r="B26" s="25" t="n"/>
+      <c r="C26" s="24" t="n"/>
+      <c r="D26" s="25" t="n"/>
+      <c r="E26" s="14" t="inlineStr">
+        <is>
+          <t>2.6.3 Adhesive coverage-Ensure full bond</t>
+        </is>
+      </c>
+      <c r="F26" s="15" t="n"/>
+      <c r="G26" s="16" t="n"/>
+      <c r="H26" s="14" t="inlineStr">
+        <is>
+          <t>Coverage: Adhesive must fully cover the bonding area, no voids or missed spots.
+ Uniform Application: Even thickness(200 micron ) across the surface; no overflow / underfill.Dielectric strength - 19.0 kV/mm.Adhesive to cure at room temperature (25°C). Handling strength is achieved in 20-25 minutes. Adhesive will cure to full strength in 2-3 hours</t>
+        </is>
+      </c>
+      <c r="I26" s="15" t="n"/>
+      <c r="J26" s="15" t="n"/>
+      <c r="K26" s="16" t="n"/>
+      <c r="L26" s="5" t="n"/>
+      <c r="M26" s="5" t="n"/>
+      <c r="N26" s="6" t="n"/>
+      <c r="O26" s="6" t="n"/>
+      <c r="P26" s="3" t="n"/>
+      <c r="Q26" s="3" t="n"/>
+      <c r="R26" s="3" t="n"/>
+      <c r="S26" s="4" t="n"/>
+    </row>
+    <row r="27" ht="30" customHeight="1" s="41">
+      <c r="A27" s="24" t="n"/>
+      <c r="B27" s="25" t="n"/>
+      <c r="C27" s="24" t="n"/>
+      <c r="D27" s="25" t="n"/>
+      <c r="E27" s="14" t="inlineStr">
+        <is>
+          <t>2.6.4 Adhesion strength</t>
+        </is>
+      </c>
+      <c r="F27" s="15" t="n"/>
+      <c r="G27" s="16" t="n"/>
+      <c r="H27" s="14" t="inlineStr">
+        <is>
+          <t>Pull Test (Manual Check)-Manual pull/peel should not cause detachment without damaging substrate</t>
+        </is>
+      </c>
+      <c r="I27" s="15" t="n"/>
+      <c r="J27" s="15" t="n"/>
+      <c r="K27" s="16" t="n"/>
+      <c r="L27" s="5" t="n"/>
+      <c r="M27" s="5" t="n"/>
+      <c r="N27" s="6" t="n"/>
+      <c r="O27" s="6" t="n"/>
+      <c r="P27" s="3" t="n"/>
+      <c r="Q27" s="3" t="n"/>
+      <c r="R27" s="3" t="n"/>
+      <c r="S27" s="4" t="n"/>
+    </row>
+    <row r="28" ht="30" customHeight="1" s="41">
+      <c r="A28" s="19" t="n"/>
+      <c r="B28" s="20" t="n"/>
+      <c r="C28" s="19" t="n"/>
+      <c r="D28" s="20" t="n"/>
+      <c r="E28" s="14" t="inlineStr">
+        <is>
+          <t>2.6.5 Busbar and CPT sub assembly dim(Ht 22.2 mm from the base )</t>
+        </is>
+      </c>
+      <c r="F28" s="15" t="n"/>
+      <c r="G28" s="16" t="n"/>
+      <c r="H28" s="14" t="inlineStr">
+        <is>
+          <t>Tolerance: 22.2 mm ± 0.10 mm</t>
+        </is>
+      </c>
+      <c r="I28" s="15" t="n"/>
+      <c r="J28" s="15" t="n"/>
+      <c r="K28" s="16" t="n"/>
+      <c r="L28" s="8" t="n"/>
+      <c r="M28" s="8" t="n"/>
+      <c r="N28" s="6" t="n"/>
+      <c r="O28" s="6" t="n"/>
+      <c r="P28" s="3" t="n"/>
+      <c r="Q28" s="3" t="n"/>
+      <c r="R28" s="3" t="n"/>
+      <c r="S28" s="4" t="n"/>
+    </row>
+    <row r="29" ht="30" customHeight="1" s="41">
+      <c r="A29" s="23" t="inlineStr">
+        <is>
+          <t>3.Encapsulation &amp; Soldering &amp; sub assembly -Phase 1</t>
+        </is>
+      </c>
+      <c r="B29" s="18" t="n"/>
+      <c r="C29" s="17" t="inlineStr">
+        <is>
+          <t>3.1.The 80 % of encapsulation on module by tightening the module(sidewalls) using the holding fixture</t>
+        </is>
+      </c>
+      <c r="D29" s="18" t="n"/>
+      <c r="E29" s="14" t="inlineStr">
+        <is>
+          <t>3.1.1 No encapsulant leakage from sidewalls 
+ Curing time 2 hr @ room temperature ~ 25°C</t>
+        </is>
+      </c>
+      <c r="F29" s="15" t="n"/>
+      <c r="G29" s="16" t="n"/>
+      <c r="H29" s="14" t="inlineStr">
+        <is>
+          <t>Encapsulant fills 75%–85% of cavity height uniformly – no underfill / overflow.
+ No encapsulant should be seen leaking from side walls or joints – all sides</t>
+        </is>
+      </c>
+      <c r="I29" s="15" t="n"/>
+      <c r="J29" s="15" t="n"/>
+      <c r="K29" s="16" t="n"/>
+      <c r="L29" s="5" t="n"/>
+      <c r="M29" s="5" t="n"/>
+      <c r="N29" s="6" t="n"/>
+      <c r="O29" s="6" t="n"/>
+      <c r="P29" s="7" t="n"/>
+      <c r="Q29" s="7" t="n"/>
+      <c r="R29" s="3" t="n"/>
+      <c r="S29" s="4" t="n"/>
+    </row>
+    <row r="30" ht="30" customHeight="1" s="41">
+      <c r="A30" s="24" t="n"/>
+      <c r="B30" s="25" t="n"/>
+      <c r="C30" s="19" t="n"/>
+      <c r="D30" s="20" t="n"/>
+      <c r="E30" s="14" t="inlineStr">
+        <is>
+          <t>3.1.2 L 410.3*W 239.4 mm</t>
+        </is>
+      </c>
+      <c r="F30" s="15" t="n"/>
+      <c r="G30" s="16" t="n"/>
+      <c r="H30" s="14" t="inlineStr">
+        <is>
+          <t>Outer casing dimensions post-potting should remain within ± 0.50 to 1.50 mm of original</t>
+        </is>
+      </c>
+      <c r="I30" s="15" t="n"/>
+      <c r="J30" s="15" t="n"/>
+      <c r="K30" s="16" t="n"/>
+      <c r="L30" s="8" t="n"/>
+      <c r="M30" s="8" t="n"/>
+      <c r="N30" s="6" t="n"/>
+      <c r="O30" s="6" t="n"/>
+      <c r="P30" s="3" t="n"/>
+      <c r="Q30" s="3" t="n"/>
+      <c r="R30" s="3" t="n"/>
+      <c r="S30" s="4" t="n"/>
+    </row>
+    <row r="31" ht="30" customHeight="1" s="41">
+      <c r="A31" s="24" t="n"/>
+      <c r="B31" s="25" t="n"/>
+      <c r="C31" s="17" t="inlineStr">
+        <is>
+          <t>3.2. Bus bar sub assembly placement and Soldering of voltage taps on the cells</t>
+        </is>
+      </c>
+      <c r="D31" s="18" t="n"/>
+      <c r="E31" s="14" t="inlineStr">
+        <is>
+          <t>3.2.1 Busbar+ CPT module assembly dim(Ht 78 mm from the base )</t>
+        </is>
+      </c>
+      <c r="F31" s="15" t="n"/>
+      <c r="G31" s="16" t="n"/>
+      <c r="H31" s="14" t="inlineStr">
+        <is>
+          <t>Tolerance: 78mm ± 0.15 mm</t>
+        </is>
+      </c>
+      <c r="I31" s="15" t="n"/>
+      <c r="J31" s="15" t="n"/>
+      <c r="K31" s="16" t="n"/>
+      <c r="L31" s="8" t="n"/>
+      <c r="M31" s="8" t="n"/>
+      <c r="N31" s="6" t="n"/>
+      <c r="O31" s="6" t="n"/>
+      <c r="P31" s="3" t="n"/>
+      <c r="Q31" s="3" t="n"/>
+      <c r="R31" s="3" t="n"/>
+      <c r="S31" s="4" t="n"/>
+    </row>
+    <row r="32" ht="30" customHeight="1" s="41">
+      <c r="A32" s="24" t="n"/>
+      <c r="B32" s="25" t="n"/>
+      <c r="C32" s="19" t="n"/>
+      <c r="D32" s="20" t="n"/>
+      <c r="E32" s="14" t="inlineStr">
+        <is>
+          <t>3.2.2 Soldering check &amp; Voltage of module level (soft soldering (lead) It’s a basic soldering the voltage taps on the positive surface of the cell)</t>
+        </is>
+      </c>
+      <c r="F32" s="15" t="n"/>
+      <c r="G32" s="16" t="n"/>
+      <c r="H32" s="14" t="inlineStr">
+        <is>
+          <t>Solder should flow and wet both pad and component lead .No Excessive Solder. Each tap point outputs expected voltage (same as cell voltage) &amp; no continuity present(all the modules goes through two verification process after voltage tap soldering 
+ • Continuity check (end to end)
+ • Voltage measurement at end of the connector )</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="n"/>
+      <c r="J32" s="15" t="n"/>
+      <c r="K32" s="16" t="n"/>
+      <c r="L32" s="8" t="n"/>
+      <c r="M32" s="8" t="n"/>
+      <c r="N32" s="6" t="n"/>
+      <c r="O32" s="6" t="n"/>
+      <c r="P32" s="3" t="n"/>
+      <c r="Q32" s="3" t="n"/>
+      <c r="R32" s="3" t="n"/>
+      <c r="S32" s="4" t="n"/>
+    </row>
+    <row r="33" ht="30" customHeight="1" s="41">
+      <c r="A33" s="19" t="n"/>
+      <c r="B33" s="20" t="n"/>
+      <c r="C33" s="17" t="inlineStr">
+        <is>
+          <t>3.3 Stripping,crimping &amp; connector insertion for voltage tap and thermistor</t>
+        </is>
+      </c>
+      <c r="D33" s="16" t="n"/>
+      <c r="E33" s="14" t="inlineStr">
+        <is>
+          <t>3.3.1 Proper Stripping,crimping &amp; connector insertion for voltage tap and thermistor</t>
+        </is>
+      </c>
+      <c r="F33" s="15" t="n"/>
+      <c r="G33" s="16" t="n"/>
+      <c r="H33" s="14" t="inlineStr">
+        <is>
+          <t>Firmly bonded, should not shift with light finger pressure - post cure.No insulation debris left.
+ No loose strands, misalignment, or broken connector housing
+ Proper labels/marks for voltage tap, thermistor – clearly visible.Should not disconnect under light pull test.</t>
+        </is>
+      </c>
+      <c r="I33" s="15" t="n"/>
+      <c r="J33" s="15" t="n"/>
+      <c r="K33" s="16" t="n"/>
+      <c r="L33" s="5" t="n"/>
+      <c r="M33" s="5" t="n"/>
+      <c r="N33" s="6" t="n"/>
+      <c r="O33" s="6" t="n"/>
+      <c r="P33" s="3" t="n"/>
+      <c r="Q33" s="3" t="n"/>
+      <c r="R33" s="3" t="n"/>
+      <c r="S33" s="4" t="n"/>
+    </row>
+    <row r="34" ht="30" customHeight="1" s="41">
+      <c r="A34" s="23" t="inlineStr">
+        <is>
+          <t>4. Wire bonding</t>
+        </is>
+      </c>
+      <c r="B34" s="16" t="n"/>
+      <c r="C34" s="17" t="inlineStr">
+        <is>
+          <t>4.1 As per the drawing</t>
+        </is>
+      </c>
+      <c r="D34" s="16" t="n"/>
+      <c r="E34" s="14" t="inlineStr">
+        <is>
+          <t>4.1.1 The 4 bonds on each cells as per the drawing ,module voltage &amp; continuity (no continuity present)</t>
+        </is>
+      </c>
+      <c r="F34" s="15" t="n"/>
+      <c r="G34" s="16" t="n"/>
+      <c r="H34" s="14" t="inlineStr">
+        <is>
+          <t>Smooth loop, no kinks or sharp bends; loop height ≤ 1 mm from the bus bar allowed . Should pass in the testing (no capacity loss).No bond lift/broken during normal handling. Typically double bonds per terminal. All bonded connections must pass continuity test</t>
+        </is>
+      </c>
+      <c r="I34" s="15" t="n"/>
+      <c r="J34" s="15" t="n"/>
+      <c r="K34" s="16" t="n"/>
+      <c r="L34" s="5" t="n"/>
+      <c r="M34" s="5" t="n"/>
+      <c r="N34" s="6" t="n"/>
+      <c r="O34" s="6" t="n"/>
+      <c r="P34" s="7" t="n"/>
+      <c r="Q34" s="7" t="n"/>
+      <c r="R34" s="3" t="n"/>
+      <c r="S34" s="4" t="n"/>
+    </row>
+    <row r="35" ht="30" customHeight="1" s="41">
+      <c r="A35" s="23" t="inlineStr">
+        <is>
+          <t>5.Encapsulation (100%)Phase II</t>
+        </is>
+      </c>
+      <c r="B35" s="18" t="n"/>
+      <c r="C35" s="17" t="inlineStr">
+        <is>
+          <t>5.1 The remaining 20 % of encapsulation on wire bonded module</t>
+        </is>
+      </c>
+      <c r="D35" s="16" t="n"/>
+      <c r="E35" s="14" t="inlineStr">
+        <is>
+          <t>5.1.1 Equal distribution of encapsulant on the module(4 hrs. curing)</t>
+        </is>
+      </c>
+      <c r="F35" s="15" t="n"/>
+      <c r="G35" s="16" t="n"/>
+      <c r="H35" s="14" t="inlineStr">
+        <is>
+          <t>All internal components, pins, wires, and solder joints must be fully embedded</t>
+        </is>
+      </c>
+      <c r="I35" s="15" t="n"/>
+      <c r="J35" s="15" t="n"/>
+      <c r="K35" s="16" t="n"/>
+      <c r="L35" s="5" t="n"/>
+      <c r="M35" s="5" t="n"/>
+      <c r="N35" s="6" t="n"/>
+      <c r="O35" s="6" t="n"/>
+      <c r="P35" s="7" t="n"/>
+      <c r="Q35" s="7" t="n"/>
+      <c r="R35" s="3" t="n"/>
+      <c r="S35" s="4" t="n"/>
+    </row>
+    <row r="36" ht="30" customHeight="1" s="41">
+      <c r="A36" s="19" t="n"/>
+      <c r="B36" s="20" t="n"/>
+      <c r="C36" s="17" t="inlineStr">
+        <is>
+          <t>5.2 Dimensions of the pack</t>
+        </is>
+      </c>
+      <c r="D36" s="16" t="n"/>
+      <c r="E36" s="14" t="inlineStr">
+        <is>
+          <t>5.2.1. H 78.6 * L 410.3*W 239.4 mm</t>
+        </is>
+      </c>
+      <c r="F36" s="15" t="n"/>
+      <c r="G36" s="16" t="n"/>
+      <c r="H36" s="14" t="inlineStr">
+        <is>
+          <t>Final fill height within ±1 mm of designed enclosure height (no overfilling)</t>
+        </is>
+      </c>
+      <c r="I36" s="15" t="n"/>
+      <c r="J36" s="15" t="n"/>
+      <c r="K36" s="16" t="n"/>
+      <c r="L36" s="8" t="n"/>
+      <c r="M36" s="8" t="n"/>
+      <c r="N36" s="6" t="n"/>
+      <c r="O36" s="6" t="n"/>
+      <c r="P36" s="3" t="n"/>
+      <c r="Q36" s="3" t="n"/>
+      <c r="R36" s="3" t="n"/>
+      <c r="S36" s="4" t="n"/>
+    </row>
+    <row r="37" ht="30" customHeight="1" s="41">
+      <c r="A37" s="23" t="inlineStr">
+        <is>
+          <t>6. QC Checks</t>
+        </is>
+      </c>
+      <c r="B37" s="16" t="n"/>
+      <c r="C37" s="17" t="inlineStr">
+        <is>
+          <t>6.1 Module level QC checks</t>
+        </is>
+      </c>
+      <c r="D37" s="16" t="n"/>
+      <c r="E37" s="14" t="inlineStr">
+        <is>
+          <t>6.1.1. Check for-Spec 
+ a)Weight 17 Kg 
+ b)Module Voltage 50 V 
+ c) Continuity :Not present
+ d)Module Height:78.6 mm
+ Encapsulation &amp; Final module visual checks,Floating Voltage &amp; Isolation</t>
+        </is>
+      </c>
+      <c r="F37" s="15" t="n"/>
+      <c r="G37" s="16" t="n"/>
+      <c r="H37" s="14" t="inlineStr">
+        <is>
+          <t>a)Weight 17 ± 0.500 Kg 
+ b)Module Voltage difference 100 to 150 mV
+ c) Continuity :Not present
+ d)Module Height:78.6 mm ± 0.15 mm
+ Encapsulation : Surface should be level, smooth, and tack-free after curing. Final fill height within ±1 mm .Potting around wire outlets must seal fully without leaving channels</t>
+        </is>
+      </c>
+      <c r="I37" s="15" t="n"/>
+      <c r="J37" s="15" t="n"/>
+      <c r="K37" s="16" t="n"/>
+      <c r="L37" s="9" t="n"/>
+      <c r="M37" s="9" t="n"/>
+      <c r="N37" s="6" t="n"/>
+      <c r="O37" s="6" t="n"/>
+      <c r="P37" s="7" t="n"/>
+      <c r="Q37" s="7" t="n"/>
+      <c r="R37" s="3" t="n"/>
+      <c r="S37" s="4" t="n"/>
+    </row>
+    <row r="38" ht="30" customHeight="1" s="41">
+      <c r="A38" s="23" t="inlineStr">
+        <is>
+          <t>7.EOL</t>
+        </is>
+      </c>
+      <c r="B38" s="16" t="n"/>
+      <c r="C38" s="17" t="inlineStr">
+        <is>
+          <t>7.1 CDC (before pack assembly)</t>
+        </is>
+      </c>
+      <c r="D38" s="16" t="n"/>
+      <c r="E38" s="14" t="inlineStr">
+        <is>
+          <t>7.1.1 Check for Abnormal temp &amp; voltages and cell imbalance , Isolation resistance (EOL: 300 amp charge and discharge )</t>
+        </is>
+      </c>
+      <c r="F38" s="15" t="n"/>
+      <c r="G38" s="16" t="n"/>
+      <c r="H38" s="14" t="inlineStr">
+        <is>
+          <t>Before CDC in each modules isolation resistance checked (it should be min 10 Mohm ) and there shouldn't be any continuity. 
+ 0.3C DChg
+ 0.5C Chg
+ 4C DChg pulse
+ Compliance with all end-of-line 
+ testing criteria, including capacity, temperature, and sensor accuracy, and is approved
+ Charge capacity</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="n"/>
+      <c r="J38" s="15" t="n"/>
+      <c r="K38" s="16" t="n"/>
+      <c r="L38" s="10" t="n"/>
+      <c r="M38" s="3" t="n"/>
+      <c r="N38" s="7" t="n"/>
+      <c r="O38" s="3" t="n"/>
+      <c r="P38" s="7" t="n"/>
+      <c r="Q38" s="7" t="n"/>
+      <c r="R38" s="3" t="n"/>
+      <c r="S38" s="4" t="n"/>
+    </row>
+    <row r="39" ht="30" customHeight="1" s="41">
+      <c r="A39" s="37" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="B39" s="16" t="n"/>
+      <c r="C39" s="37" t="inlineStr">
+        <is>
+          <t>WORK description</t>
+        </is>
+      </c>
+      <c r="D39" s="16" t="n"/>
+      <c r="E39" s="32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Process/QC checks </t>
+        </is>
+      </c>
+      <c r="F39" s="15" t="n"/>
+      <c r="G39" s="15" t="n"/>
+      <c r="H39" s="15" t="n"/>
+      <c r="I39" s="15" t="n"/>
+      <c r="J39" s="15" t="n"/>
+      <c r="K39" s="15" t="n"/>
+      <c r="L39" s="30" t="inlineStr">
+        <is>
+          <t>Pack QC Result</t>
+        </is>
+      </c>
+      <c r="M39" s="16" t="n"/>
+      <c r="N39" s="31" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="O39" s="16" t="n"/>
+      <c r="P39" s="31" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="Q39" s="16" t="n"/>
+      <c r="R39" s="26" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="S39" s="4" t="n"/>
+    </row>
+    <row r="40" ht="30" customHeight="1" s="41">
+      <c r="A40" s="23" t="inlineStr">
+        <is>
+          <t>8. Pack Assembly</t>
+        </is>
+      </c>
+      <c r="B40" s="18" t="n"/>
+      <c r="C40" s="17" t="inlineStr">
+        <is>
+          <t>8.1 Pack Assembly(Mock fitment of module 1 &amp; 2 in base plate enclosure)</t>
+        </is>
+      </c>
+      <c r="D40" s="16" t="n"/>
+      <c r="E40" s="14" t="inlineStr">
+        <is>
+          <t>8.1.1 Check whether PRV nut interfering</t>
+        </is>
+      </c>
+      <c r="F40" s="15" t="n"/>
+      <c r="G40" s="16" t="n"/>
+      <c r="H40" s="14" t="inlineStr">
+        <is>
+          <t>Module 1 &amp; 2 must sit flush on the base surface – no visible tilt or gap &gt; 0.5 mm. Ensure with Jig. Bolt holes and studs should align within ±0.5 mm tolerance-no forced fitment, connectors, thermistors, busbar lugs, and harnesses must not touch or rub against any part of the enclosure. Should allow free torquing of PRV nut to full spec without obstruction.</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="n"/>
+      <c r="J40" s="15" t="n"/>
+      <c r="K40" s="16" t="n"/>
+      <c r="L40" s="21" t="n"/>
+      <c r="M40" s="16" t="n"/>
+      <c r="N40" s="22" t="n"/>
+      <c r="O40" s="16" t="n"/>
+      <c r="P40" s="27" t="n"/>
+      <c r="Q40" s="16" t="n"/>
+      <c r="R40" s="3" t="n"/>
+      <c r="S40" s="4" t="n"/>
+    </row>
+    <row r="41" ht="30" customHeight="1" s="41">
+      <c r="A41" s="24" t="n"/>
+      <c r="B41" s="25" t="n"/>
+      <c r="C41" s="17" t="inlineStr">
+        <is>
+          <t>8.2 Fitment of module 1 &amp; module 2(between MSM sandwich boards) on the base plate with sealant and fastening with M4 button head</t>
+        </is>
+      </c>
+      <c r="D41" s="16" t="n"/>
+      <c r="E41" s="14" t="inlineStr">
+        <is>
+          <t>8.2.1 Check the sealant applied uniformity &amp; MSM gap maintained between the two modules. (11.2 mm)</t>
+        </is>
+      </c>
+      <c r="F41" s="15" t="n"/>
+      <c r="G41" s="16" t="n"/>
+      <c r="H41" s="14" t="inlineStr">
+        <is>
+          <t>Tolerance: ±0.10 to 0.15 mm</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="n"/>
+      <c r="J41" s="15" t="n"/>
+      <c r="K41" s="16" t="n"/>
+      <c r="L41" s="21" t="n"/>
+      <c r="M41" s="16" t="n"/>
+      <c r="N41" s="22" t="n"/>
+      <c r="O41" s="16" t="n"/>
+      <c r="P41" s="27" t="n"/>
+      <c r="Q41" s="16" t="n"/>
+      <c r="R41" s="3" t="n"/>
+      <c r="S41" s="4" t="n"/>
+    </row>
+    <row r="42" ht="30" customHeight="1" s="41">
+      <c r="A42" s="24" t="n"/>
+      <c r="B42" s="25" t="n"/>
+      <c r="C42" s="17" t="inlineStr">
+        <is>
+          <t>8.3 Assembly of sides plates (left &amp; flame arrestor sides (M5) with sealant / foam and M6)</t>
+        </is>
+      </c>
+      <c r="D42" s="16" t="n"/>
+      <c r="E42" s="14" t="inlineStr">
+        <is>
+          <t>8.3.1 Check sealant application and side foam in the fire arrestor fixed. Check the width 168.4 mm &amp; leak check.</t>
+        </is>
+      </c>
+      <c r="F42" s="15" t="n"/>
+      <c r="G42" s="16" t="n"/>
+      <c r="H42" s="14" t="inlineStr">
+        <is>
+          <t>Foam should be seated evenly without compression loss, wrinkles, or misalignment. No foam peel-off at edges.
+ Sealant must be applied continuously without gaps or voids along the mating surfaces.
+ Side foam must be fixed without misalignment
+ Verified M6 : 6.5 to 7.0 Nm, M5: 3 to 3.5 Nm with torque wrench
+ Assembled width across side plates = 168.4 mm ± 0.2 mm</t>
+        </is>
+      </c>
+      <c r="I42" s="15" t="n"/>
+      <c r="J42" s="15" t="n"/>
+      <c r="K42" s="16" t="n"/>
+      <c r="L42" s="21" t="n"/>
+      <c r="M42" s="16" t="n"/>
+      <c r="N42" s="22" t="n"/>
+      <c r="O42" s="16" t="n"/>
+      <c r="P42" s="27" t="n"/>
+      <c r="Q42" s="16" t="n"/>
+      <c r="R42" s="3" t="n"/>
+      <c r="S42" s="4" t="n"/>
+    </row>
+    <row r="43" ht="30" customHeight="1" s="41">
+      <c r="A43" s="24" t="n"/>
+      <c r="B43" s="25" t="n"/>
+      <c r="C43" s="17" t="inlineStr">
+        <is>
+          <t>8.4 Assembly of busbar series with M4 Allen head</t>
+        </is>
+      </c>
+      <c r="D43" s="16" t="n"/>
+      <c r="E43" s="14" t="inlineStr">
+        <is>
+          <t>8.4.1 Torque check @ M4</t>
+        </is>
+      </c>
+      <c r="F43" s="15" t="n"/>
+      <c r="G43" s="16" t="n"/>
+      <c r="H43" s="14" t="inlineStr">
+        <is>
+          <t>Torque to M4 1.5 Nm ± 0.1 Nm 
+ Proper alignment with terminal pads; no misfit 
+ No oxidation, oil, or dust on contact area</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="n"/>
+      <c r="J43" s="15" t="n"/>
+      <c r="K43" s="16" t="n"/>
+      <c r="L43" s="21" t="n"/>
+      <c r="M43" s="16" t="n"/>
+      <c r="N43" s="22" t="n"/>
+      <c r="O43" s="16" t="n"/>
+      <c r="P43" s="27" t="n"/>
+      <c r="Q43" s="16" t="n"/>
+      <c r="R43" s="3" t="n"/>
+      <c r="S43" s="4" t="n"/>
+    </row>
+    <row r="44" ht="30" customHeight="1" s="41">
+      <c r="A44" s="24" t="n"/>
+      <c r="B44" s="25" t="n"/>
+      <c r="C44" s="17" t="inlineStr">
+        <is>
+          <t>8.5 Cell box top cover assembly, PCB potting ,PRV assembly, subassembly &amp; cleanliness</t>
+        </is>
+      </c>
+      <c r="D44" s="16" t="n"/>
+      <c r="E44" s="14" t="inlineStr">
+        <is>
+          <t>8.5.1 No gaps allowed/ proper fitment check
+ PRV :M5 _ 1 Nm</t>
+        </is>
+      </c>
+      <c r="F44" s="15" t="n"/>
+      <c r="G44" s="16" t="n"/>
+      <c r="H44" s="14" t="inlineStr">
+        <is>
+          <t>Cover must fit flush with no visible gaps &amp; No warpage. No scratches, dents, or sealant residue. Proper seated and aligned with port. No gaps between PRV base and surface.M5 bolt torqued to 1.0 Nm ± 0.1 Nm. Clean, free from any smudges, sealant spills, or loose parts</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="n"/>
+      <c r="J44" s="15" t="n"/>
+      <c r="K44" s="16" t="n"/>
+      <c r="L44" s="21" t="n"/>
+      <c r="M44" s="16" t="n"/>
+      <c r="N44" s="22" t="n"/>
+      <c r="O44" s="16" t="n"/>
+      <c r="P44" s="27" t="n"/>
+      <c r="Q44" s="16" t="n"/>
+      <c r="R44" s="3" t="n"/>
+      <c r="S44" s="4" t="n"/>
+    </row>
+    <row r="45" ht="30" customHeight="1" s="41">
+      <c r="A45" s="24" t="n"/>
+      <c r="B45" s="25" t="n"/>
+      <c r="C45" s="17" t="inlineStr">
+        <is>
+          <t>8.6 Final QC on the pack level with CTQ's</t>
+        </is>
+      </c>
+      <c r="D45" s="18" t="n"/>
+      <c r="E45" s="14" t="inlineStr">
+        <is>
+          <t>8.6.1.Terminal Placement verification with Jig</t>
+        </is>
+      </c>
+      <c r="F45" s="15" t="n"/>
+      <c r="G45" s="16" t="n"/>
+      <c r="H45" s="14" t="inlineStr">
+        <is>
+          <t>Should match the acceptance Jig for the alignment(To ensure the terminal hole match with the busbar this fixture have been used)</t>
+        </is>
+      </c>
+      <c r="I45" s="15" t="n"/>
+      <c r="J45" s="15" t="n"/>
+      <c r="K45" s="16" t="n"/>
+      <c r="L45" s="21" t="n"/>
+      <c r="M45" s="16" t="n"/>
+      <c r="N45" s="22" t="n"/>
+      <c r="O45" s="16" t="n"/>
+      <c r="P45" s="27" t="n"/>
+      <c r="Q45" s="16" t="n"/>
+      <c r="R45" s="3" t="n"/>
+      <c r="S45" s="4" t="n"/>
+    </row>
+    <row r="46" ht="30" customHeight="1" s="41">
+      <c r="A46" s="24" t="n"/>
+      <c r="B46" s="25" t="n"/>
+      <c r="C46" s="24" t="n"/>
+      <c r="D46" s="25" t="n"/>
+      <c r="E46" s="14" t="inlineStr">
+        <is>
+          <t>8.6.2.PCB Placement verification with Jig</t>
+        </is>
+      </c>
+      <c r="F46" s="15" t="n"/>
+      <c r="G46" s="16" t="n"/>
+      <c r="H46" s="14" t="inlineStr">
+        <is>
+          <t>Should match the acceptance Jig for the alignment.</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="n"/>
+      <c r="J46" s="15" t="n"/>
+      <c r="K46" s="16" t="n"/>
+      <c r="L46" s="21" t="n"/>
+      <c r="M46" s="16" t="n"/>
+      <c r="N46" s="22" t="n"/>
+      <c r="O46" s="16" t="n"/>
+      <c r="P46" s="27" t="n"/>
+      <c r="Q46" s="16" t="n"/>
+      <c r="R46" s="3" t="n"/>
+      <c r="S46" s="4" t="n"/>
+    </row>
+    <row r="47" ht="30" customHeight="1" s="41">
+      <c r="A47" s="24" t="n"/>
+      <c r="B47" s="25" t="n"/>
+      <c r="C47" s="24" t="n"/>
+      <c r="D47" s="25" t="n"/>
+      <c r="E47" s="14" t="inlineStr">
+        <is>
+          <t>8.6.3.Stud Placement and weld check with Jig</t>
+        </is>
+      </c>
+      <c r="F47" s="15" t="n"/>
+      <c r="G47" s="16" t="n"/>
+      <c r="H47" s="14" t="inlineStr">
+        <is>
+          <t>Should match the acceptance Jig for the alignment. Must be 90° ± 1° perpendicular to the base surface. No thread damage (M5).No visible cracks, undercuts, or pinholes.</t>
+        </is>
+      </c>
+      <c r="I47" s="15" t="n"/>
+      <c r="J47" s="15" t="n"/>
+      <c r="K47" s="16" t="n"/>
+      <c r="L47" s="21" t="n"/>
+      <c r="M47" s="16" t="n"/>
+      <c r="N47" s="22" t="n"/>
+      <c r="O47" s="16" t="n"/>
+      <c r="P47" s="27" t="n"/>
+      <c r="Q47" s="16" t="n"/>
+      <c r="R47" s="3" t="n"/>
+      <c r="S47" s="4" t="n"/>
+    </row>
+    <row r="48" ht="30" customHeight="1" s="41">
+      <c r="A48" s="24" t="n"/>
+      <c r="B48" s="25" t="n"/>
+      <c r="C48" s="24" t="n"/>
+      <c r="D48" s="25" t="n"/>
+      <c r="E48" s="14" t="inlineStr">
+        <is>
+          <t>8.6.4. Mounting point alignment (Heatsink) with the Jig</t>
+        </is>
+      </c>
+      <c r="F48" s="15" t="n"/>
+      <c r="G48" s="16" t="n"/>
+      <c r="H48" s="14" t="inlineStr">
+        <is>
+          <t>Should match the acceptance Jig for the alignment.</t>
+        </is>
+      </c>
+      <c r="I48" s="15" t="n"/>
+      <c r="J48" s="15" t="n"/>
+      <c r="K48" s="16" t="n"/>
+      <c r="L48" s="21" t="n"/>
+      <c r="M48" s="16" t="n"/>
+      <c r="N48" s="22" t="n"/>
+      <c r="O48" s="16" t="n"/>
+      <c r="P48" s="27" t="n"/>
+      <c r="Q48" s="16" t="n"/>
+      <c r="R48" s="3" t="n"/>
+      <c r="S48" s="4" t="n"/>
+    </row>
+    <row r="49" ht="30" customHeight="1" s="41">
+      <c r="A49" s="24" t="n"/>
+      <c r="B49" s="25" t="n"/>
+      <c r="C49" s="24" t="n"/>
+      <c r="D49" s="25" t="n"/>
+      <c r="E49" s="14" t="inlineStr">
+        <is>
+          <t>8.6.5.Pack dim(430*168.4*301.35 mm)check</t>
+        </is>
+      </c>
+      <c r="F49" s="15" t="n"/>
+      <c r="G49" s="16" t="n"/>
+      <c r="H49" s="14" t="inlineStr">
+        <is>
+          <t>Tolerance Range : ±0.40 to 0.60</t>
+        </is>
+      </c>
+      <c r="I49" s="15" t="n"/>
+      <c r="J49" s="15" t="n"/>
+      <c r="K49" s="16" t="n"/>
+      <c r="L49" s="21" t="n"/>
+      <c r="M49" s="16" t="n"/>
+      <c r="N49" s="22" t="n"/>
+      <c r="O49" s="16" t="n"/>
+      <c r="P49" s="27" t="n"/>
+      <c r="Q49" s="16" t="n"/>
+      <c r="R49" s="3" t="n"/>
+      <c r="S49" s="4" t="n"/>
+    </row>
+    <row r="50" ht="30" customHeight="1" s="41">
+      <c r="A50" s="24" t="n"/>
+      <c r="B50" s="25" t="n"/>
+      <c r="C50" s="24" t="n"/>
+      <c r="D50" s="25" t="n"/>
+      <c r="E50" s="14" t="inlineStr">
+        <is>
+          <t>8.6.6.Torque checks &amp; torque marking</t>
+        </is>
+      </c>
+      <c r="F50" s="15" t="n"/>
+      <c r="G50" s="16" t="n"/>
+      <c r="H50" s="14" t="inlineStr">
+        <is>
+          <t>Check with Torque wrench M6 : 6.5 to 7.0 Nm, M5: 3 to 3.5 Nm, M4:1.5 Nm ± 0.1 Nm ,M3: 0.5 to 0.6 Nm, PRV M5 torque: 1 Nm</t>
+        </is>
+      </c>
+      <c r="I50" s="15" t="n"/>
+      <c r="J50" s="15" t="n"/>
+      <c r="K50" s="16" t="n"/>
+      <c r="L50" s="21" t="n"/>
+      <c r="M50" s="16" t="n"/>
+      <c r="N50" s="22" t="n"/>
+      <c r="O50" s="16" t="n"/>
+      <c r="P50" s="27" t="n"/>
+      <c r="Q50" s="16" t="n"/>
+      <c r="R50" s="3" t="n"/>
+      <c r="S50" s="4" t="n"/>
+    </row>
+    <row r="51" ht="30" customHeight="1" s="41">
+      <c r="A51" s="24" t="n"/>
+      <c r="B51" s="25" t="n"/>
+      <c r="C51" s="24" t="n"/>
+      <c r="D51" s="25" t="n"/>
+      <c r="E51" s="14" t="inlineStr">
+        <is>
+          <t>8.6.7.Flatness £0.5 mm</t>
+        </is>
+      </c>
+      <c r="F51" s="15" t="n"/>
+      <c r="G51" s="16" t="n"/>
+      <c r="H51" s="14" t="inlineStr">
+        <is>
+          <t>Tol range ±0.1 mm</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
+      <c r="J51" s="15" t="n"/>
+      <c r="K51" s="16" t="n"/>
+      <c r="L51" s="21" t="n"/>
+      <c r="M51" s="16" t="n"/>
+      <c r="N51" s="22" t="n"/>
+      <c r="O51" s="16" t="n"/>
+      <c r="P51" s="27" t="n"/>
+      <c r="Q51" s="16" t="n"/>
+      <c r="R51" s="3" t="n"/>
+      <c r="S51" s="4" t="n"/>
+    </row>
+    <row r="52" ht="30" customHeight="1" s="41">
+      <c r="A52" s="24" t="n"/>
+      <c r="B52" s="25" t="n"/>
+      <c r="C52" s="24" t="n"/>
+      <c r="D52" s="25" t="n"/>
+      <c r="E52" s="14" t="inlineStr">
+        <is>
+          <t>8.6.8.Sealing - (PCB, Overall Pack Body &amp; Terminals)</t>
+        </is>
+      </c>
+      <c r="F52" s="15" t="n"/>
+      <c r="G52" s="16" t="n"/>
+      <c r="H52" s="14" t="inlineStr">
+        <is>
+          <t>Full coverage over defined PCB areas &amp; Potting must seal all gaps along PCB edge or housing boundary. Must be continuous with no gaps, voids. Fastners should not sealed with sealant.</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="n"/>
+      <c r="J52" s="15" t="n"/>
+      <c r="K52" s="16" t="n"/>
+      <c r="L52" s="21" t="n"/>
+      <c r="M52" s="16" t="n"/>
+      <c r="N52" s="22" t="n"/>
+      <c r="O52" s="16" t="n"/>
+      <c r="P52" s="27" t="n"/>
+      <c r="Q52" s="16" t="n"/>
+      <c r="R52" s="3" t="n"/>
+      <c r="S52" s="4" t="n"/>
+    </row>
+    <row r="53" ht="30" customHeight="1" s="41">
+      <c r="A53" s="24" t="n"/>
+      <c r="B53" s="25" t="n"/>
+      <c r="C53" s="24" t="n"/>
+      <c r="D53" s="25" t="n"/>
+      <c r="E53" s="14" t="inlineStr">
+        <is>
+          <t>8.6.9. Overall aesthetics/cleanliness of the pack</t>
+        </is>
+      </c>
+      <c r="F53" s="15" t="n"/>
+      <c r="G53" s="16" t="n"/>
+      <c r="H53" s="14" t="inlineStr">
+        <is>
+          <t>Dust / Particle Free, No Sealant Overflow, No Oil / Grease Residue &amp; Sticker Cleanliness.
+ Top cover, side plates, and connectors flush and aligned within ±0.5 mm. All visible fasteners, washers, clamps must be present and properly fixed.</t>
+        </is>
+      </c>
+      <c r="I53" s="15" t="n"/>
+      <c r="J53" s="15" t="n"/>
+      <c r="K53" s="16" t="n"/>
+      <c r="L53" s="21" t="n"/>
+      <c r="M53" s="16" t="n"/>
+      <c r="N53" s="22" t="n"/>
+      <c r="O53" s="16" t="n"/>
+      <c r="P53" s="27" t="n"/>
+      <c r="Q53" s="16" t="n"/>
+      <c r="R53" s="3" t="n"/>
+      <c r="S53" s="4" t="n"/>
+    </row>
+    <row r="54" ht="30" customHeight="1" s="41">
+      <c r="A54" s="24" t="n"/>
+      <c r="B54" s="25" t="n"/>
+      <c r="C54" s="24" t="n"/>
+      <c r="D54" s="25" t="n"/>
+      <c r="E54" s="14" t="inlineStr">
+        <is>
+          <t>8.6.10.Top casing torque check and paint marking (M4 socked head)</t>
+        </is>
+      </c>
+      <c r="F54" s="15" t="n"/>
+      <c r="G54" s="16" t="n"/>
+      <c r="H54" s="14" t="inlineStr">
+        <is>
+          <t>Torquing with torque wrench _M4:1.5 Nm ± 0.1 Nm</t>
+        </is>
+      </c>
+      <c r="I54" s="15" t="n"/>
+      <c r="J54" s="15" t="n"/>
+      <c r="K54" s="16" t="n"/>
+      <c r="L54" s="21" t="n"/>
+      <c r="M54" s="16" t="n"/>
+      <c r="N54" s="22" t="n"/>
+      <c r="O54" s="16" t="n"/>
+      <c r="P54" s="27" t="n"/>
+      <c r="Q54" s="16" t="n"/>
+      <c r="R54" s="3" t="n"/>
+      <c r="S54" s="4" t="n"/>
+    </row>
+    <row r="55" ht="30" customHeight="1" s="41">
+      <c r="A55" s="24" t="n"/>
+      <c r="B55" s="25" t="n"/>
+      <c r="C55" s="24" t="n"/>
+      <c r="D55" s="25" t="n"/>
+      <c r="E55" s="14" t="inlineStr">
+        <is>
+          <t>8.6.11.Leak test /Pressure test (Passed/Failed)</t>
+        </is>
+      </c>
+      <c r="F55" s="15" t="n"/>
+      <c r="G55" s="16" t="n"/>
+      <c r="H55" s="14" t="inlineStr">
+        <is>
+          <t>Terminal glands, casing joints, PRV_ free from leakage after 3 psi applied (pressurised air induced into the pack throgh PRV nut hole and air leaks are validated. Passing criteria for this test is such that the pack needs to hold 3 psi to ensure there is leak free)</t>
+        </is>
+      </c>
+      <c r="I55" s="15" t="n"/>
+      <c r="J55" s="15" t="n"/>
+      <c r="K55" s="16" t="n"/>
+      <c r="L55" s="21" t="n"/>
+      <c r="M55" s="16" t="n"/>
+      <c r="N55" s="22" t="n"/>
+      <c r="O55" s="16" t="n"/>
+      <c r="P55" s="27" t="n"/>
+      <c r="Q55" s="16" t="n"/>
+      <c r="R55" s="3" t="n"/>
+      <c r="S55" s="4" t="n"/>
+    </row>
+    <row r="56" ht="30" customHeight="1" s="41">
+      <c r="A56" s="24" t="n"/>
+      <c r="B56" s="25" t="n"/>
+      <c r="C56" s="19" t="n"/>
+      <c r="D56" s="20" t="n"/>
+      <c r="E56" s="14" t="inlineStr">
+        <is>
+          <t>8.6.12. Pack weight (CAD Wt.: 38 Kg)</t>
+        </is>
+      </c>
+      <c r="F56" s="15" t="n"/>
+      <c r="G56" s="16" t="n"/>
+      <c r="H56" s="14" t="inlineStr">
+        <is>
+          <t>Acceptable Weight Range:37.5 kg – 38.5 kg</t>
+        </is>
+      </c>
+      <c r="I56" s="15" t="n"/>
+      <c r="J56" s="15" t="n"/>
+      <c r="K56" s="16" t="n"/>
+      <c r="L56" s="21" t="n"/>
+      <c r="M56" s="16" t="n"/>
+      <c r="N56" s="22" t="n"/>
+      <c r="O56" s="16" t="n"/>
+      <c r="P56" s="27" t="n"/>
+      <c r="Q56" s="16" t="n"/>
+      <c r="R56" s="3" t="n"/>
+      <c r="S56" s="4" t="n"/>
+    </row>
+    <row r="57" ht="30" customHeight="1" s="41">
+      <c r="A57" s="24" t="n"/>
+      <c r="B57" s="25" t="n"/>
+      <c r="C57" s="17" t="inlineStr">
+        <is>
+          <t>8.7 Electrical Test CTQ's</t>
+        </is>
+      </c>
+      <c r="D57" s="18" t="n"/>
+      <c r="E57" s="14" t="inlineStr">
+        <is>
+          <t>8.7.1 Pack voltage: 100 V Nominal</t>
+        </is>
+      </c>
+      <c r="F57" s="15" t="n"/>
+      <c r="G57" s="16" t="n"/>
+      <c r="H57" s="14" t="inlineStr">
+        <is>
+          <t>98 V to 100V</t>
+        </is>
+      </c>
+      <c r="I57" s="15" t="n"/>
+      <c r="J57" s="15" t="n"/>
+      <c r="K57" s="16" t="n"/>
+      <c r="L57" s="21" t="n"/>
+      <c r="M57" s="16" t="n"/>
+      <c r="N57" s="22" t="n"/>
+      <c r="O57" s="16" t="n"/>
+      <c r="P57" s="27" t="n"/>
+      <c r="Q57" s="16" t="n"/>
+      <c r="R57" s="3" t="n"/>
+      <c r="S57" s="4" t="n"/>
+    </row>
+    <row r="58" ht="30" customHeight="1" s="41">
+      <c r="A58" s="24" t="n"/>
+      <c r="B58" s="25" t="n"/>
+      <c r="C58" s="24" t="n"/>
+      <c r="D58" s="25" t="n"/>
+      <c r="E58" s="14" t="inlineStr">
+        <is>
+          <t>8.7.2 Isolation resistance: Min in Mohm</t>
+        </is>
+      </c>
+      <c r="F58" s="15" t="n"/>
+      <c r="G58" s="16" t="n"/>
+      <c r="H58" s="14" t="inlineStr">
+        <is>
+          <t>Min 10 MW (-ve to casing body &amp; + ve to casing body)</t>
+        </is>
+      </c>
+      <c r="I58" s="15" t="n"/>
+      <c r="J58" s="15" t="n"/>
+      <c r="K58" s="16" t="n"/>
+      <c r="L58" s="21" t="n"/>
+      <c r="M58" s="16" t="n"/>
+      <c r="N58" s="22" t="n"/>
+      <c r="O58" s="16" t="n"/>
+      <c r="P58" s="27" t="n"/>
+      <c r="Q58" s="16" t="n"/>
+      <c r="R58" s="3" t="n"/>
+      <c r="S58" s="4" t="n"/>
+    </row>
+    <row r="59" ht="30" customHeight="1" s="41">
+      <c r="A59" s="24" t="n"/>
+      <c r="B59" s="25" t="n"/>
+      <c r="C59" s="24" t="n"/>
+      <c r="D59" s="25" t="n"/>
+      <c r="E59" s="14" t="inlineStr">
+        <is>
+          <t>8.7.3 Hard leakage to body- Shouldn't present</t>
+        </is>
+      </c>
+      <c r="F59" s="15" t="n"/>
+      <c r="G59" s="16" t="n"/>
+      <c r="H59" s="14" t="inlineStr">
+        <is>
+          <t>No continuity present</t>
+        </is>
+      </c>
+      <c r="I59" s="15" t="n"/>
+      <c r="J59" s="15" t="n"/>
+      <c r="K59" s="16" t="n"/>
+      <c r="L59" s="21" t="n"/>
+      <c r="M59" s="16" t="n"/>
+      <c r="N59" s="22" t="n"/>
+      <c r="O59" s="16" t="n"/>
+      <c r="P59" s="27" t="n"/>
+      <c r="Q59" s="16" t="n"/>
+      <c r="R59" s="3" t="n"/>
+      <c r="S59" s="4" t="n"/>
+    </row>
+    <row r="60" ht="30" customHeight="1" s="41">
+      <c r="A60" s="24" t="n"/>
+      <c r="B60" s="25" t="n"/>
+      <c r="C60" s="24" t="n"/>
+      <c r="D60" s="25" t="n"/>
+      <c r="E60" s="14" t="inlineStr">
+        <is>
+          <t>8.7.4 Voltage taps and thermistor readings with respect to PRAVAIG BMS (PCB communications : voltage + temperature)</t>
+        </is>
+      </c>
+      <c r="F60" s="15" t="n"/>
+      <c r="G60" s="16" t="n"/>
+      <c r="H60" s="14" t="inlineStr">
+        <is>
+          <t>28 voltage tap to be verified : 100 to 150 mV
+ 11 thermistor reading verified : 2</t>
+        </is>
+      </c>
+      <c r="I60" s="15" t="n"/>
+      <c r="J60" s="15" t="n"/>
+      <c r="K60" s="16" t="n"/>
+      <c r="L60" s="21" t="n"/>
+      <c r="M60" s="16" t="n"/>
+      <c r="N60" s="22" t="n"/>
+      <c r="O60" s="16" t="n"/>
+      <c r="P60" s="27" t="n"/>
+      <c r="Q60" s="16" t="n"/>
+      <c r="R60" s="3" t="n"/>
+      <c r="S60" s="4" t="n"/>
+    </row>
+    <row r="61" ht="30" customHeight="1" s="41">
+      <c r="A61" s="19" t="n"/>
+      <c r="B61" s="20" t="n"/>
+      <c r="C61" s="19" t="n"/>
+      <c r="D61" s="20" t="n"/>
+      <c r="E61" s="14" t="inlineStr">
+        <is>
+          <t>8.7.5 Hard leakage to body _Shouldn't present (after bench drop test about 20deg)</t>
+        </is>
+      </c>
+      <c r="F61" s="15" t="n"/>
+      <c r="G61" s="16" t="n"/>
+      <c r="H61" s="14" t="inlineStr">
+        <is>
+          <t>No continuity present</t>
+        </is>
+      </c>
+      <c r="I61" s="15" t="n"/>
+      <c r="J61" s="15" t="n"/>
+      <c r="K61" s="16" t="n"/>
+      <c r="L61" s="21" t="n"/>
+      <c r="M61" s="16" t="n"/>
+      <c r="N61" s="22" t="n"/>
+      <c r="O61" s="16" t="n"/>
+      <c r="P61" s="27" t="n"/>
+      <c r="Q61" s="16" t="n"/>
+      <c r="R61" s="3" t="n"/>
+      <c r="S61" s="4" t="n"/>
+    </row>
+    <row r="62" ht="30" customHeight="1" s="41">
+      <c r="A62" s="35" t="inlineStr">
+        <is>
+          <t>9.Overall pack visual inspection: No defects/ no dents/ no stains(maintain the cleanliness) , HV terminals covered with Kapton, PCB covered ,PRV placed and covered to protect damage, product labels, warning labels, +ve &amp; -ve terminal label, manufacturing date and QC decals placement.(SOC % before dispatch £30%)</t>
+        </is>
+      </c>
+      <c r="B62" s="15" t="n"/>
+      <c r="C62" s="15" t="n"/>
+      <c r="D62" s="15" t="n"/>
+      <c r="E62" s="15" t="n"/>
+      <c r="F62" s="15" t="n"/>
+      <c r="G62" s="15" t="n"/>
+      <c r="H62" s="15" t="n"/>
+      <c r="I62" s="15" t="n"/>
+      <c r="J62" s="15" t="n"/>
+      <c r="K62" s="16" t="n"/>
+      <c r="L62" s="21" t="inlineStr">
+        <is>
+          <t>NOT OK</t>
+        </is>
+      </c>
+      <c r="M62" s="16" t="n"/>
+      <c r="N62" s="21" t="inlineStr">
+        <is>
+          <t>2025-12-31 10:49:33.953973</t>
+        </is>
+      </c>
+      <c r="O62" s="16" t="n"/>
+      <c r="P62" s="21" t="inlineStr">
+        <is>
+          <t>Testtt</t>
+        </is>
+      </c>
+      <c r="Q62" s="16" t="n"/>
+      <c r="R62" s="3" t="inlineStr">
+        <is>
+          <t>dsd</t>
+        </is>
+      </c>
       <c r="S62" s="4" t="n"/>
     </row>
     <row r="63" ht="30" customHeight="1" s="41">
